--- a/Planning_optimization_part4/Constraints.xlsx
+++ b/Planning_optimization_part4/Constraints.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\GitHub\Production-plan-optimization\Planning_optimization_part3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\GitHub\Production-plan-optimization\Planning_optimization_part4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA1F1B1-1381-4E09-BA84-7504D60E70C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8050AF2F-5FB9-426C-AC8C-8A106D154831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7870" yWindow="2970" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8h capacity" sheetId="1" r:id="rId1"/>
-    <sheet name="Changeover" sheetId="2" r:id="rId2"/>
+    <sheet name="Changeover (min)" sheetId="2" r:id="rId2"/>
     <sheet name="Batchsize" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
   <si>
     <t>Line</t>
   </si>
@@ -81,6 +81,9 @@
   <si>
     <t>Line_3</t>
   </si>
+  <si>
+    <t>Model</t>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -273,6 +282,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,6 +301,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63362</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>241299</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Change Over Sequencing Part 2 | AllAboutLean.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349522A9-E87C-472A-B6C6-9A91746C313E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8356462" y="704850"/>
+          <a:ext cx="3835537" cy="2978150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,23 +634,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="A1:D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="4" width="11.28515625" customWidth="1"/>
+    <col min="2" max="4" width="11.26953125" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -599,7 +678,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -613,7 +692,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -627,7 +706,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -641,7 +720,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -655,7 +734,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -669,7 +748,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -683,7 +762,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -697,7 +776,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -711,7 +790,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -725,7 +804,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -748,16 +827,477 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E47DC93-165F-4227-A006-116253C967A1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5">
+        <v>15</v>
+      </c>
+      <c r="L3" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5">
+        <v>15</v>
+      </c>
+      <c r="L4" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5">
+        <v>15</v>
+      </c>
+      <c r="L5" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5">
+        <v>15</v>
+      </c>
+      <c r="K6" s="5">
+        <v>15</v>
+      </c>
+      <c r="L6" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5">
+        <v>15</v>
+      </c>
+      <c r="L7" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5">
+        <v>15</v>
+      </c>
+      <c r="K8" s="5">
+        <v>15</v>
+      </c>
+      <c r="L8" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <v>15</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5">
+        <v>15</v>
+      </c>
+      <c r="L9" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5">
+        <v>15</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>15</v>
+      </c>
+      <c r="L10" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5">
+        <v>15</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8">
+        <v>15</v>
+      </c>
+      <c r="H12" s="8">
+        <v>15</v>
+      </c>
+      <c r="I12" s="8">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8">
+        <v>15</v>
+      </c>
+      <c r="K12" s="8">
+        <v>15</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -769,12 +1309,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +1328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -802,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -816,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -830,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -844,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -858,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -872,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -886,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -900,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -914,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -928,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
